--- a/Test_suite.xlsx
+++ b/Test_suite.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -89,23 +89,11 @@
 }</t>
   </si>
   <si>
-    <t>4. Проверить наличие поста в базе данных с помощью GET запроса /wp/v2/posts/&lt;id&gt;</t>
-  </si>
-  <si>
-    <t>4. Тело ответа в формате JSON объекта &lt;id&gt; с ранее отправленными параметрами:
-{
-    "id": 8,
-    ...
-    "slug": "test_post_1",
-    "status": "publish",
-    ...
-    "title": {
-        "raw": "Post pervii",
-        "rendered": "Post pervii"
-    },
-    ...
-    }
-}</t>
+    <t>4. Проверить наличие поста &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных с помощью запроса к ней: 
+SELECT * FROM wp_posts WHERE ID = &lt;id&gt;;</t>
+  </si>
+  <si>
+    <t>4. Пост &lt;id&gt; с ранее отправленными параметрами имеется в базе данных</t>
   </si>
   <si>
     <t>READ - Отправка запроса чтения созданного поста</t>
@@ -145,6 +133,13 @@
 }</t>
   </si>
   <si>
+    <t>4. Проверить наличие проверяемого поста &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных с помощью запроса к ней: 
+SELECT * FROM wp_posts WHERE ID = &lt;id&gt;;</t>
+  </si>
+  <si>
+    <t>4. Данные поста в теле ответа GET-запроса и в базе данных совпадают</t>
+  </si>
+  <si>
     <t>UPDATE - Отправка запроса обновления поста</t>
   </si>
   <si>
@@ -167,23 +162,11 @@
 }</t>
   </si>
   <si>
-    <t>4. Проверить наличие обновленного содержимого параметра в базе данных с помощью GET запроса /wp/v2/posts/&lt;id&gt;</t>
-  </si>
-  <si>
-    <t>4. Тело ответа в формате JSON объекта &lt;id&gt; с измененным ранее параметром:
-{
-    "id": 8,
-    ...
-    "slug": "test_post_1",
-    "status": "publish",
-    ...
-    "title": {
-        "raw": "Post pervii22",
-        "rendered": "Post pervii22"
-    },
-    ...
-    }
-}</t>
+    <t>4. Проверить применение изменений параметров поста &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных с помощью запроса к ней: 
+SELECT * FROM wp_posts WHERE ID = &lt;id&gt;;</t>
+  </si>
+  <si>
+    <t>4. Изменения параметров поста &lt;id&gt; в базе данных имеются</t>
   </si>
   <si>
     <t>DELETE - Отправка запроса удаления поста</t>
@@ -214,10 +197,11 @@
 }</t>
   </si>
   <si>
-    <t>4. Проверить наличие удаленного объекта в списке постов с помощью GET запроса /wp/v2/posts/</t>
-  </si>
-  <si>
-    <t>4. В списке постов объект не найден</t>
+    <t>4. Проверить наличие у удаленого поста &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных статуса "trash" в параметре post_status с помощью запроса к ней: 
+SELECT * FROM wp_posts WHERE ID = &lt;id&gt; AND post_status="trash";</t>
+  </si>
+  <si>
+    <t>4. В базе данных у поста &lt;id&gt; в параметре "post_status" статус "trash"</t>
   </si>
   <si>
     <t>USERS</t>
@@ -249,17 +233,11 @@
 }</t>
   </si>
   <si>
-    <t>4. Проверить наличие объекта в базе данных с помощью GET запроса /wp/v2/users/&lt;id&gt;</t>
-  </si>
-  <si>
-    <t>4. Тело ответа в формате JSON объекта &lt;id&gt; с ранее отправленными параметрами:
-{
-    "id": 4,
-    "username": "new_user3",
-    ...
-    "email": "user3@mail.ru",
-    ...
-}</t>
+    <t>4. Проверить наличие пользователя id (ранее сгенерированное значение из ответа POST-запроса) в базе данных с помощью запроса к ней: 
+SELECT * FROM wp_users WHERE ID = &lt;id&gt;;</t>
+  </si>
+  <si>
+    <t>4. Пользователь &lt;id&gt; с ранее отправленными параметрами имеется в базе данных</t>
   </si>
   <si>
     <t>READ - Отправка запроса чтения данных пользователя</t>
@@ -285,6 +263,13 @@
 }</t>
   </si>
   <si>
+    <t>4. Проверить наличие проверяемого пользователя &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных с помощью запроса к ней: 
+SELECT * FROM wp_users WHERE ID = &lt;id&gt;;</t>
+  </si>
+  <si>
+    <t>4. Данные в теле ответа GET-запроса и в базе данных совпадают</t>
+  </si>
+  <si>
     <t>UPDATE - Отправка запроса обновления данных пользователя</t>
   </si>
   <si>
@@ -301,17 +286,11 @@
 }</t>
   </si>
   <si>
-    <t>4. Проверить наличие обновленного содержимого параметра в базе данных с помощью GET запроса  /wp/v2/users/&lt;id&gt;</t>
-  </si>
-  <si>
-    <t>3. Тело ответа в формате JSON объекта &lt;id&gt; с измененным ранее параметром:
-{
-    "id": 4,
-    "username": "new_user3",
-    ...
-    "email": "user900@mail.ru",
-    ...
-}</t>
+    <t>4. Проверить применение изменений параметров пользователя &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных с помощью запроса к ней: 
+SELECT * FROM wp_users WHERE ID = &lt;id&gt;;</t>
+  </si>
+  <si>
+    <t>4. Изменения параметров пользователя &lt;id&gt; в базе данных имеются</t>
   </si>
   <si>
     <t>DELETE - Отправка запроса удаления пользователя</t>
@@ -334,23 +313,11 @@
 }</t>
   </si>
   <si>
-    <t>4. Проверить наличие удаленного объекта с помощью GET запроса /wp/v2/users/&lt;id&gt;</t>
-  </si>
-  <si>
-    <t>4. Тело ответа в формате JSON объекта &lt;id&gt; такого вида:
-{
-    "code": "rest_user_invalid_id",
-    "message": "Неверный ID пользователя.",
-    "data": {
-        "status": 404
-    }
-}</t>
-  </si>
-  <si>
-    <t>5. Проверить код состояния GET запроса</t>
-  </si>
-  <si>
-    <t>5. HTTP status: 404 Not Found</t>
+    <t>4. Проверить отсутствие удаленого пользователя &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных с помощью запроса к ней: 
+SELECT * FROM wp_users WHERE ID = &lt;id&gt;;</t>
+  </si>
+  <si>
+    <t>4. В базе данных пользователь &lt;id&gt; отсутствует</t>
   </si>
   <si>
     <t>COMMENTS</t>
@@ -366,7 +333,7 @@
 Создан пост с возможностью комментирования (параметр "comment_status" в статусе "open")  и параметрами slug, title, content, status, author.</t>
   </si>
   <si>
-    <t>1. Отправить POST запрос /wp/v2/comments на создание поста с параметрами post, content, author</t>
+    <t>1. Отправить POST запрос /wp/v2/comments на создание комментария с параметрами post, content, author</t>
   </si>
   <si>
     <t>3. Создан комментарий с id = &lt;генерируемое значение&gt;
@@ -384,22 +351,11 @@
 }</t>
   </si>
   <si>
-    <t>4. Проверить наличие поста в базе данных с помощью GET запроса /wp/v2/comments/&lt;id&gt;</t>
-  </si>
-  <si>
-    <t>4. Тело ответа в формате JSON объекта &lt;id&gt; с параметрами:
-{
-    "id": 3,
-    "post": 6,
-    "author": 1,
-    "content": {
-        "rendered": "&lt;p&gt;11The content for the comment. The content for the comment. The content for the comment. The content for the comment. The content for the comment.&lt;/p&gt;\n",
-        "raw": "11The content for the comment. The content for the comment. The content for the comment. The content for the comment. The content for the comment."
-    },
-    "status": "approved",
-    "type": "comment"
-    ...
-}</t>
+    <t>4. Проверить наличие комментария &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных с помощью запроса к ней: 
+SELECT * FROM wp_comments WHERE ID = &lt;id&gt;;</t>
+  </si>
+  <si>
+    <t>4. Комментарий &lt;id&gt; с ранее отправленными параметрами имеется в базе данных</t>
   </si>
   <si>
     <t>READ - Отправка запроса чтения созданного комментария</t>
@@ -431,6 +387,13 @@
 }</t>
   </si>
   <si>
+    <t>4. Проверить наличие проверяемого комментария &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных с помощью запроса к ней: 
+SELECT * FROM wp_comments WHERE ID = &lt;id&gt;;</t>
+  </si>
+  <si>
+    <t>4. Данные комментария в теле ответа GET-запроса и в базе данных совпадают</t>
+  </si>
+  <si>
     <t>UPDATE - Отправка запроса обновления комментария</t>
   </si>
   <si>
@@ -452,22 +415,11 @@
 }</t>
   </si>
   <si>
-    <t>4. Проверить наличие обновленного содержимого параметра в базе данных с помощью GET запроса /wp/v2/comments/&lt;id&gt;</t>
-  </si>
-  <si>
-    <t>4. Тело ответа в формате JSON объекта &lt;id&gt; с обновленными ранее параметрами:
-{
-    "id": 3,
-    "post": 6,
-    "author": 1,
-    "content": {
-        "rendered": "&lt;p&gt;1100The content for the comment. The content for the comment. The content for the comment. The content for the comment. The content for the comment.&lt;/p&gt;\n",
-        "raw": "11The content for the comment. The content for the comment. The content for the comment. The content for the comment. The content for the comment."
-    },
-    "status": "approved",
-    "type": "comment"
-    ...
-}</t>
+    <t>4. Проверить применение изменений параметров комментария &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных с помощью запроса к ней: 
+SELECT * FROM wp_comments WHERE ID = &lt;id&gt;;</t>
+  </si>
+  <si>
+    <t>4. Изменения параметров комментария &lt;id&gt; в базе данных имеются</t>
   </si>
   <si>
     <t>DELETE - Отправка запроса удаления комментария</t>
@@ -492,10 +444,11 @@
 </t>
   </si>
   <si>
-    <t>4. Проверить наличие удаленного объекта в списке комментариев с помощью GET запроса /wp/v2/comments/</t>
-  </si>
-  <si>
-    <t>4. В списке комментариев объект &lt;id&gt; не найден</t>
+    <t>4. Проверить наличие у удаленого комментария &lt;id&gt; (ранее сгенерированное значение из ответа POST-запроса) в базе данных статуса "trash" в параметре comment_approved с помощью запроса к ней: 
+SELECT * FROM wp_comments WHERE ID = &lt;id&gt; AND comment_approved="trash";</t>
+  </si>
+  <si>
+    <t>4. В базе данных у комментария &lt;id&gt; в параметре "comment_approved" статус "trash"</t>
   </si>
 </sst>
 </file>
@@ -545,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -611,6 +564,19 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -625,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -706,14 +672,26 @@
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1084,7 +1062,7 @@
     <row r="6">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="17"/>
       <c r="E6" s="10" t="s">
         <v>20</v>
@@ -1150,55 +1128,53 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="14"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7">
         <v>3.0</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="17"/>
       <c r="E12" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="21"/>
@@ -1206,10 +1182,12 @@
     <row r="13">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="17"/>
       <c r="E13" s="10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>33</v>
@@ -1218,42 +1196,42 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7">
         <v>4.0</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="14"/>
@@ -1261,10 +1239,10 @@
       <c r="C16" s="20"/>
       <c r="D16" s="17"/>
       <c r="E16" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="21"/>
@@ -1284,85 +1262,85 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="F18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7">
         <v>5.0</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="D20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="18"/>
     </row>
     <row r="21">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D21" s="17"/>
       <c r="E21" s="10" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="18"/>
@@ -1382,108 +1360,108 @@
       <c r="H22" s="18"/>
     </row>
     <row r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7">
         <v>6.0</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="D24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12" t="s">
+      <c r="G24" s="11"/>
+      <c r="H24" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="18"/>
-    </row>
     <row r="25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="27"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="H26" s="21"/>
     </row>
     <row r="27">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="17"/>
       <c r="E27" s="10" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="E28" s="10" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="21"/>
+      <c r="H28" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="14"/>
@@ -1491,37 +1469,27 @@
       <c r="C29" s="20"/>
       <c r="D29" s="17"/>
       <c r="E29" s="10" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="G30" s="11"/>
-      <c r="H30" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="H30" s="21"/>
     </row>
     <row r="31">
       <c r="A31" s="14"/>
@@ -1529,27 +1497,37 @@
       <c r="C31" s="20"/>
       <c r="D31" s="17"/>
       <c r="E31" s="10" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="21"/>
     </row>
     <row r="32">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
+      <c r="A32" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="E32" s="10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="H32" s="21"/>
+      <c r="H32" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="14"/>
@@ -1557,108 +1535,108 @@
       <c r="C33" s="20"/>
       <c r="D33" s="17"/>
       <c r="E33" s="10" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="21"/>
     </row>
     <row r="34">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="10" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="11"/>
-      <c r="H34" s="31"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
+      <c r="F35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7">
         <v>9.0</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="D37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12" t="s">
+      <c r="G37" s="11"/>
+      <c r="H37" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="18"/>
     </row>
     <row r="38">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
+      <c r="C38" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D38" s="17"/>
       <c r="E38" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="18"/>
@@ -1669,7 +1647,7 @@
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="10" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>71</v>
@@ -1678,209 +1656,229 @@
       <c r="H39" s="18"/>
     </row>
     <row r="40">
-      <c r="A40" s="7">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="7">
         <v>10.0</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="D41" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12" t="s">
+      <c r="G41" s="11"/>
+      <c r="H41" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="18"/>
     </row>
     <row r="42">
       <c r="A42" s="14"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="18"/>
     </row>
     <row r="43">
-      <c r="A43" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="A43" s="14"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="17"/>
       <c r="E43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="G43" s="11"/>
-      <c r="H43" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="H43" s="18"/>
     </row>
     <row r="44">
       <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="10" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G44" s="11"/>
-      <c r="H44" s="21"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="17"/>
+      <c r="A45" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="E45" s="10" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="G45" s="11"/>
-      <c r="H45" s="21"/>
+      <c r="H45" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="16"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="17"/>
       <c r="E46" s="10" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="21"/>
     </row>
     <row r="47">
-      <c r="A47" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="17"/>
       <c r="E47" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="G47" s="11"/>
-      <c r="H47" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="H47" s="21"/>
     </row>
     <row r="48">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="20"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="17"/>
       <c r="E48" s="10" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="21"/>
     </row>
     <row r="49">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="17"/>
+      <c r="A49" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="E49" s="10" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="G49" s="11"/>
-      <c r="H49" s="21"/>
+      <c r="H49" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="10" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="G50" s="11"/>
-      <c r="H50" s="31"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
     </row>
     <row r="54">
       <c r="A54" s="3"/>
@@ -1901,20 +1899,20 @@
     <row r="58">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="35"/>
     </row>
     <row r="59">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="35"/>
     </row>
     <row r="60">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
+      <c r="C61" s="39"/>
     </row>
     <row r="62">
       <c r="A62" s="3"/>
@@ -5752,23 +5750,31 @@
       <c r="A1020" s="3"/>
       <c r="B1020" s="3"/>
     </row>
+    <row r="1021">
+      <c r="A1021" s="3"/>
+      <c r="B1021" s="3"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="3"/>
+      <c r="B1022" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D41:D44"/>
     <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G17 G19:G34 G36:G50">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G18 G20:G35 G37:G52">
       <formula1>"Passed ,Failed,Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test_suite.xlsx
+++ b/Test_suite.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -51,7 +51,7 @@
 Доступ к API.</t>
   </si>
   <si>
-    <t>1. Отправить POST запрос /wp/v2/posts на создание поста с параметрами slug, title, content, status</t>
+    <t>1. Отправить POST запрос /wp/v2/c на создание поста с параметрами slug, title, content, status</t>
   </si>
   <si>
     <t>1. Запрос API отправляется на сервер.</t>
@@ -296,7 +296,7 @@
     <t>DELETE - Отправка запроса удаления пользователя</t>
   </si>
   <si>
-    <t>1. Отправить DELETE запрос /wp/v2/users/&lt;id&gt; для удаления объекта</t>
+    <t>1. Отправить DELETE запрос /wp/v2/users/&lt;id&gt; для удаления объекта с параметрами reassign и force:</t>
   </si>
   <si>
     <t>3. Тело ответа в формате JSON объекта &lt;id&gt; с измененным параметром  "deleted" в статусе "true":
@@ -449,6 +449,42 @@
   </si>
   <si>
     <t>4. В базе данных у комментария &lt;id&gt; в параметре "comment_approved" статус "trash"</t>
+  </si>
+  <si>
+    <t>Создание в бд и тест через API</t>
+  </si>
+  <si>
+    <t>создать тест кейсы на проверку получения данных через api запрос</t>
+  </si>
+  <si>
+    <t>READ USER - Отправка запроса чтения данных пользователя</t>
+  </si>
+  <si>
+    <t>Создано тестовое окружение с Wordpress и БД к нему.
+Активирован плагин JSON Basic Authentification.
+Доступ к API.
+Доступ к базовой авторизации.
+В базе данных создан пользователь с обязательными полями</t>
+  </si>
+  <si>
+    <t>READ POST - Отправка запроса чтения созданного поста</t>
+  </si>
+  <si>
+    <t>Создано тестовое окружение с Wordpress и БД к нему.
+Активирован плагин JSON Basic Authentification.
+Доступ к API.
+В базе данных создан пост с параметрами slug, title, content, status.</t>
+  </si>
+  <si>
+    <t>READ COMMENT - Отправка запроса чтения созданного комментария</t>
+  </si>
+  <si>
+    <t>Создано тестовое окружение с Wordpress и БД к нему.
+Активирован плагин JSON Basic Authentification.
+Доступ к API.
+Базовая авторизация.
+В базе данных создан пост с возможностью комментирования (параметр "comment_status" в статусе "open")  и параметрами slug, title, content, status, author.
+В базе данных создан комментарий с параметрами post, content, author.</t>
   </si>
 </sst>
 </file>
@@ -591,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -692,16 +728,13 @@
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1872,63 +1905,220 @@
       <c r="H52" s="34"/>
     </row>
     <row r="53">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="21"/>
     </row>
     <row r="57">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="21"/>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="H58" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="39"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="H60" s="18"/>
     </row>
     <row r="61">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="39"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="11"/>
+      <c r="H61" s="18"/>
     </row>
     <row r="62">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="11"/>
+      <c r="H62" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="11"/>
+      <c r="H64" s="18"/>
     </row>
     <row r="65">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="38"/>
     </row>
     <row r="66">
       <c r="A66" s="3"/>
@@ -5742,39 +5932,26 @@
       <c r="A1018" s="3"/>
       <c r="B1018" s="3"/>
     </row>
-    <row r="1019">
-      <c r="A1019" s="3"/>
-      <c r="B1019" s="3"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="3"/>
-      <c r="B1020" s="3"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="3"/>
-      <c r="B1021" s="3"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="3"/>
-      <c r="B1022" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D41:D44"/>
+  <mergeCells count="15">
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D28:D31"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D62:D65"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G18 G20:G35 G37:G52">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G18 G20:G35 G37:G52 G54:G65">
       <formula1>"Passed ,Failed,Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test_suite.xlsx
+++ b/Test_suite.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -451,10 +451,7 @@
     <t>4. В базе данных у комментария &lt;id&gt; в параметре "comment_approved" статус "trash"</t>
   </si>
   <si>
-    <t>Создание в бд и тест через API</t>
-  </si>
-  <si>
-    <t>создать тест кейсы на проверку получения данных через api запрос</t>
+    <t>Создание данных в БД и тест API</t>
   </si>
   <si>
     <t>READ USER - Отправка запроса чтения данных пользователя</t>
@@ -1911,9 +1908,7 @@
       <c r="D53" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="6"/>
       <c r="H53" s="4"/>
@@ -1926,10 +1921,10 @@
         <v>9</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>53</v>
@@ -1992,10 +1987,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>24</v>
@@ -2060,10 +2055,10 @@
         <v>9</v>
       </c>
       <c r="C62" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>76</v>
